--- a/test/datafiles/bestArm_multiArms.xlsx
+++ b/test/datafiles/bestArm_multiArms.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="2arms-bestArm" sheetId="1" r:id="rId1"/>
     <sheet name="85arms-bestArm" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="RESULTS" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_347355919437673" localSheetId="0">'2arms-bestArm'!$A$1:$SH$5</definedName>
@@ -8181,24 +8181,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53938432"/>
-        <c:axId val="53997568"/>
+        <c:axId val="83666048"/>
+        <c:axId val="83667584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53938432"/>
+        <c:axId val="83666048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53997568"/>
+        <c:crossAx val="83667584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53997568"/>
+        <c:axId val="83667584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8206,7 +8206,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53938432"/>
+        <c:crossAx val="83666048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8219,7 +8219,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15869,24 +15869,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56296576"/>
-        <c:axId val="56298112"/>
+        <c:axId val="84337792"/>
+        <c:axId val="84339328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56296576"/>
+        <c:axId val="84337792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56298112"/>
+        <c:crossAx val="84339328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56298112"/>
+        <c:axId val="84339328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15894,7 +15894,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56296576"/>
+        <c:crossAx val="84337792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15907,7 +15907,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
